--- a/FrontEnd_spice/Power_table.xlsx
+++ b/FrontEnd_spice/Power_table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bill\Documents\UoM\Year5\Sem2\ESD\Workshops\DSO\FrontEnd_spice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FECD7A0B-71ED-4B38-97A0-AF43A49B0504}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951C6A6F-3053-4878-BE45-BD8C15FF936D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17565" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{58EB4FBA-0692-4E8E-B918-F5C407515199}"/>
+    <workbookView xWindow="6540" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{58EB4FBA-0692-4E8E-B918-F5C407515199}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>R1</t>
   </si>
@@ -93,13 +96,55 @@
     <t>R14</t>
   </si>
   <si>
-    <t>Total power</t>
-  </si>
-  <si>
     <t>Power(W)</t>
   </si>
   <si>
-    <t>DC bias(A)</t>
+    <t>Total power(W)</t>
+  </si>
+  <si>
+    <t>Clamp</t>
+  </si>
+  <si>
+    <t>Scaling Network</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Low Pass Filter</t>
+  </si>
+  <si>
+    <t>DC current bias(A)</t>
+  </si>
+  <si>
+    <t>Gain &amp; Level Shifter</t>
+  </si>
+  <si>
+    <t>Clamp_out</t>
+  </si>
+  <si>
+    <t>DC voltage bias at output(V)</t>
+  </si>
+  <si>
+    <t>Block power(W)</t>
+  </si>
+  <si>
+    <t>Scale_out</t>
+  </si>
+  <si>
+    <t>Output port</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Buffer_out</t>
+  </si>
+  <si>
+    <t>Low_pass_out</t>
+  </si>
+  <si>
+    <t>ADC_in</t>
   </si>
 </sst>
 </file>
@@ -135,9 +180,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,237 +503,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D1AE9E-E1EB-4FE1-8120-616BC018BDA2}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1">
-        <f>SUM(B:B)</f>
-        <v>0.92135459758833216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.65479E-11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.7465819999999995E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.2624799999999999E-11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-2.5249999999999999E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.2625099999999999E-8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.5249999999999999E-9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.77582E-5</v>
+      </c>
+      <c r="G5" s="1">
+        <f>SUM(C3:C5)</f>
+        <v>1.2684272699999999E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.8447889999999999E-7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-9.7465819999999995E-7</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.845721E-7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.7475199999999991E-7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.49712299999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <f>SUM(C7:C8)</f>
+        <v>9.6905099999999988E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.7385200000000005E-2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.49687720000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <f>C10</f>
+        <v>9.7385200000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.4669000000000002E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-4.9668999999999998E-3</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.4689E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-4.9687999999999998E-3</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.8782990000000001E-10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.9991000000000001E-6</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.1139785</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.4966991</v>
+      </c>
+      <c r="G15" s="1">
+        <f>SUM(C12:C15)</f>
+        <v>0.11891430018782989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.5508000000000008E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.1395E-3</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8.6779700000000001E-2</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.8692000000000002E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.1377000000000002E-3</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.12049E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-7.1365999999999999E-3</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.01811E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.1348000000000002E-3</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8.7345500000000006E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.8938E-12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1.7010999999999999E-6</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.412358E-10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.6974E-6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>2.5041000000000002</v>
+      </c>
+      <c r="G25" s="1">
+        <f>SUM(C17:C25)</f>
+        <v>0.20793120014412961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4.65479E-11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9.7465819999999995E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.2624799999999999E-11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-2.5249999999999999E-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.2625099999999999E-8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.5249999999999999E-9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.49712339999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-9.7465819999999995E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.845721E-7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9.7475199999999991E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9.7385200000000005E-2</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.4669000000000002E-3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-4.9668999999999998E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.4689E-3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-4.9687999999999998E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.8782990000000001E-10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.9991000000000001E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.1139785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8.5508000000000008E-3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.1395E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8.6779700000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3.8692000000000002E-3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4.1377000000000002E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.12049E-2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-7.1365999999999999E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.01811E-2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7.1348000000000002E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8.7345500000000006E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.8938E-12</v>
-      </c>
-      <c r="C20" s="1">
-        <v>-1.7010999999999999E-6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.412358E-10</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.6974E-6</v>
+      <c r="G27">
+        <f>SUM(C:C)</f>
+        <v>0.42423168206723222</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>